--- a/dev/test/TestParser_ctest/data/TestCaseParser_TestData_001.xlsx
+++ b/dev/test/TestParser_ctest/data/TestCaseParser_TestData_001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sample_function_001" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="86">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -296,10 +296,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>_input1[0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -312,23 +308,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2～3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2～3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -449,6 +433,37 @@
   </si>
   <si>
     <t>void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -561,7 +576,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -979,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M39" sqref="M39:P42"/>
     </sheetView>
   </sheetViews>
@@ -1498,17 +1533,17 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D4 M40:N40">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:P19">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>M8=M7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N42">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>M41=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1521,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L13" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2279,12 +2314,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D5">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:P20">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>M9=M8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2295,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG24"/>
+  <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2323,12 +2358,12 @@
     <col min="54" max="16384" width="2.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2367,14 +2402,14 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2429,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2414,12 +2449,12 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2438,53 +2473,8 @@
       <c r="R9" s="3">
         <v>1</v>
       </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
-        <v>6</v>
-      </c>
-      <c r="X9" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>15</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2503,29 +2493,8 @@
       <c r="R10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2549,31 +2518,8 @@
         <v>1</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2597,31 +2543,8 @@
         <v>2</v>
       </c>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2645,31 +2568,8 @@
         <v>3</v>
       </c>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2695,29 +2595,8 @@
       <c r="R14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2741,31 +2620,8 @@
         <v>1</v>
       </c>
       <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
@@ -2789,31 +2645,8 @@
         <v>2</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
@@ -2837,31 +2670,8 @@
         <v>3</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2882,32 +2692,9 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2929,35 +2716,8 @@
         <v>1</v>
       </c>
       <c r="R19" s="7"/>
-      <c r="S19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2979,31 +2739,8 @@
         <v>2</v>
       </c>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
@@ -3025,27 +2762,8 @@
         <v>3</v>
       </c>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="8"/>
@@ -3054,7 +2772,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3063,7 +2781,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3075,12 +2793,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P21">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>M10=M9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3091,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG23"/>
+  <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3115,16 +2833,16 @@
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="33" width="3" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="2.125" style="2"/>
+    <col min="18" max="18" width="3" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="2.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +2868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3163,14 +2881,14 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3192,7 +2910,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -3214,12 +2932,12 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
@@ -3238,53 +2956,8 @@
       <c r="R9" s="3">
         <v>1</v>
       </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
-        <v>6</v>
-      </c>
-      <c r="X9" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>15</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M10" s="7" t="s">
         <v>26</v>
       </c>
@@ -3303,29 +2976,8 @@
       <c r="R10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3340,40 +2992,17 @@
         <v>14</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3391,37 +3020,14 @@
         <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="4">
         <v>2</v>
       </c>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3436,40 +3042,17 @@
         <v>14</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="4">
         <v>3</v>
       </c>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3484,64 +3067,19 @@
         <v>14</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3556,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>27</v>
@@ -3564,32 +3102,9 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3604,7 +3119,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
@@ -3613,31 +3128,8 @@
         <v>1</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
@@ -3652,40 +3144,17 @@
         <v>14</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="4">
         <v>2</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG17" s="7"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
@@ -3700,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>30</v>
@@ -3708,32 +3177,11 @@
       <c r="Q18" s="4">
         <v>3</v>
       </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
@@ -3748,64 +3196,19 @@
         <v>14</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3826,32 +3229,9 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3873,35 +3253,8 @@
         <v>1</v>
       </c>
       <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
@@ -3915,32 +3268,11 @@
       <c r="Q22" s="4">
         <v>2</v>
       </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R22" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
@@ -3955,31 +3287,97 @@
         <v>3</v>
       </c>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="4">
+        <v>123</v>
+      </c>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="4">
+        <v>124</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="M26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="4">
+        <v>125</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="M27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="4">
+        <v>126</v>
+      </c>
+      <c r="R27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P23">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:P27">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>C4=C3</formula>
+      <formula>M24=M23</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3989,11 +3387,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG23"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4013,16 +3409,16 @@
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="33" width="3" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="2.125" style="2"/>
+    <col min="18" max="18" width="3" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="2.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +3444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4057,18 +3453,18 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4077,63 +3473,63 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
@@ -4152,53 +3548,8 @@
       <c r="R9" s="3">
         <v>1</v>
       </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
-        <v>6</v>
-      </c>
-      <c r="X9" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>15</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M10" s="7" t="s">
         <v>26</v>
       </c>
@@ -4214,32 +3565,9 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4254,40 +3582,17 @@
         <v>14</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="4">
         <v>1</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4305,37 +3610,14 @@
         <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="4">
         <v>2</v>
       </c>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4350,40 +3632,17 @@
         <v>14</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="4">
         <v>3</v>
       </c>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4398,64 +3657,17 @@
         <v>14</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4470,7 +3682,7 @@
         <v>14</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>27</v>
@@ -4478,32 +3690,9 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4518,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
@@ -4527,31 +3716,8 @@
         <v>1</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
@@ -4566,40 +3732,17 @@
         <v>14</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="4">
         <v>2</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG17" s="7"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
@@ -4614,7 +3757,7 @@
         <v>14</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>30</v>
@@ -4623,31 +3766,8 @@
         <v>3</v>
       </c>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
@@ -4662,64 +3782,17 @@
         <v>14</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4740,32 +3813,9 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4787,35 +3837,8 @@
         <v>1</v>
       </c>
       <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
@@ -4830,31 +3853,8 @@
         <v>2</v>
       </c>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
@@ -4869,25 +3869,6 @@
         <v>3</v>
       </c>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4968,11 +3949,11 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -4986,7 +3967,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -4999,18 +3980,18 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
